--- a/data/trans_orig/P6603-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6603-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>139206</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>123092</v>
+        <v>122652</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>154357</v>
+        <v>155528</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5671789246758359</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5015256916073436</v>
+        <v>0.499731538488918</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6289101433995705</v>
+        <v>0.6336819089336951</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>160</v>
@@ -765,19 +765,19 @@
         <v>172997</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>160039</v>
+        <v>159782</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>184536</v>
+        <v>184728</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7975419236320849</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.737803294658907</v>
+        <v>0.7366160736850834</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8507376907011556</v>
+        <v>0.8516231947810858</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>294</v>
@@ -786,19 +786,19 @@
         <v>312203</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>290922</v>
+        <v>291971</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>332018</v>
+        <v>332010</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6752547615866552</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.629228090673261</v>
+        <v>0.6314954933745577</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7181133223845058</v>
+        <v>0.7180953533348673</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>39665</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30098</v>
+        <v>28980</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53799</v>
+        <v>52528</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1616101050554401</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1226315226011852</v>
+        <v>0.1180762295008038</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2191969539435663</v>
+        <v>0.2140188642342324</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -836,19 +836,19 @@
         <v>27673</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18352</v>
+        <v>18839</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39606</v>
+        <v>38998</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1275777642357271</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08460334066786258</v>
+        <v>0.08685013976495359</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1825911609024228</v>
+        <v>0.1797850064500938</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -857,19 +857,19 @@
         <v>67338</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53292</v>
+        <v>52745</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>84157</v>
+        <v>83474</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1456436793152401</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1152647177586429</v>
+        <v>0.1140814487058827</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1820203565674777</v>
+        <v>0.1805447315189209</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>46613</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34647</v>
+        <v>35442</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>61326</v>
+        <v>61121</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1899185969289517</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1411673588458623</v>
+        <v>0.1444067037651671</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2498652134417274</v>
+        <v>0.2490297759777879</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -907,19 +907,19 @@
         <v>11957</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6076</v>
+        <v>6129</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20833</v>
+        <v>20099</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05512290917448896</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02801300445474577</v>
+        <v>0.02825662925514591</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09604328061798884</v>
+        <v>0.09265710972562975</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>53</v>
@@ -928,19 +928,19 @@
         <v>58570</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44695</v>
+        <v>44427</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>73987</v>
+        <v>76651</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1266785938380045</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09666883920007278</v>
+        <v>0.09608975595896645</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1600236994103644</v>
+        <v>0.1657867891499042</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>19952</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12280</v>
+        <v>12121</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29814</v>
+        <v>30855</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08129237333977236</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05003348198814162</v>
+        <v>0.04938750503352971</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1214723143743267</v>
+        <v>0.1257144044195964</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -978,19 +978,19 @@
         <v>4286</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1158</v>
+        <v>1022</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10138</v>
+        <v>10556</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01975740295769916</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005339780621654981</v>
+        <v>0.004713098163015525</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0467381437999469</v>
+        <v>0.04866250870642091</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -999,19 +999,19 @@
         <v>24238</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14628</v>
+        <v>15200</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35258</v>
+        <v>35559</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05242296526010021</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0316388932803715</v>
+        <v>0.03287517155758803</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07625897912644718</v>
+        <v>0.07690921010346061</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>417402</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>393375</v>
+        <v>391631</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>441198</v>
+        <v>441813</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6518380385236698</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6143156489910456</v>
+        <v>0.6115923237208073</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6889988599631474</v>
+        <v>0.6899591652276152</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>233</v>
@@ -1124,19 +1124,19 @@
         <v>246903</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>234715</v>
+        <v>233932</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>257490</v>
+        <v>257786</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8585046532754455</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8161285286215004</v>
+        <v>0.8134053451722427</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8953197523719961</v>
+        <v>0.8963478748165991</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>627</v>
@@ -1145,19 +1145,19 @@
         <v>664304</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>636653</v>
+        <v>635200</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>691223</v>
+        <v>690081</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7158898968511531</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6860918089522008</v>
+        <v>0.6845259101571993</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7448985009430285</v>
+        <v>0.7436681988193736</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>118655</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100522</v>
+        <v>99455</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>140721</v>
+        <v>140256</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1852989500156348</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1569801657786143</v>
+        <v>0.1553145552027315</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2197570215284892</v>
+        <v>0.219032278558551</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1195,19 +1195,19 @@
         <v>24168</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15875</v>
+        <v>15902</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34528</v>
+        <v>34752</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08403473509014996</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05519800061748724</v>
+        <v>0.05529169035461765</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1200559107174405</v>
+        <v>0.1208354789370502</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>139</v>
@@ -1216,19 +1216,19 @@
         <v>142824</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>121911</v>
+        <v>121652</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>164532</v>
+        <v>166665</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1539142914153989</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1313783140173148</v>
+        <v>0.1310989929882067</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1773080755451331</v>
+        <v>0.1796075396574549</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>75564</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>59521</v>
+        <v>61934</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>91540</v>
+        <v>92774</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1180052838136668</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09295206310791752</v>
+        <v>0.09671897003093852</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1429539996905369</v>
+        <v>0.144880708445222</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1266,19 +1266,19 @@
         <v>12973</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7246</v>
+        <v>7009</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21233</v>
+        <v>21205</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04510754171372758</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02519350252508941</v>
+        <v>0.02437156377975866</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07383037628958876</v>
+        <v>0.07373177659866009</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>91</v>
@@ -1287,19 +1287,19 @@
         <v>88537</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>70434</v>
+        <v>71701</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>106058</v>
+        <v>107712</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09541220144771778</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07590333837784718</v>
+        <v>0.07726876257669654</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1142933840373854</v>
+        <v>0.1160765958501578</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>28724</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19306</v>
+        <v>19597</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41298</v>
+        <v>42643</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0448577276470285</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03014875098955844</v>
+        <v>0.03060410105379284</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06449332078623182</v>
+        <v>0.06659385075138902</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1337,19 +1337,19 @@
         <v>3553</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9322</v>
+        <v>10548</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01235306992067704</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003475308310318286</v>
+        <v>0.003508500607820491</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03241465065373787</v>
+        <v>0.03667673259144393</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>28</v>
@@ -1358,19 +1358,19 @@
         <v>32277</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21422</v>
+        <v>22194</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>46666</v>
+        <v>45072</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03478361028573026</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02308581364286901</v>
+        <v>0.02391722997811289</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0502901502410786</v>
+        <v>0.04857242692333684</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>513550</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>490002</v>
+        <v>489839</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>537768</v>
+        <v>536445</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.726718505973913</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6933959287474957</v>
+        <v>0.6931657828354882</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.760988424080001</v>
+        <v>0.7591170859551921</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>301</v>
@@ -1483,19 +1483,19 @@
         <v>309625</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>296346</v>
+        <v>296640</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>320235</v>
+        <v>321089</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8709328266673331</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8335787804798404</v>
+        <v>0.8344060093713946</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9007766702414191</v>
+        <v>0.9031784176206593</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>796</v>
@@ -1504,19 +1504,19 @@
         <v>823175</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>794693</v>
+        <v>792989</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>851537</v>
+        <v>850960</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7749868035013904</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7481727108371756</v>
+        <v>0.7465677112886668</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8016885108396793</v>
+        <v>0.8011459308295173</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>110636</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>92521</v>
+        <v>90528</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>129494</v>
+        <v>131341</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1565599883225635</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1309255531087494</v>
+        <v>0.1281053962908988</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1832451399500605</v>
+        <v>0.1858586498518767</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>30</v>
@@ -1554,19 +1554,19 @@
         <v>30903</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>21369</v>
+        <v>21014</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>42570</v>
+        <v>41247</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08692595705645141</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06010859031369638</v>
+        <v>0.0591095876978643</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1197438828349395</v>
+        <v>0.1160220717734709</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>134</v>
@@ -1575,19 +1575,19 @@
         <v>141539</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>118807</v>
+        <v>119321</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>164599</v>
+        <v>165696</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1332535918216526</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1118517727611076</v>
+        <v>0.1123361077976585</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1549631966916897</v>
+        <v>0.1559963375515295</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>65402</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52097</v>
+        <v>52463</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>81723</v>
+        <v>82559</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09255021314463571</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07372147053201893</v>
+        <v>0.07424010618264412</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.115645013170784</v>
+        <v>0.1168279865418631</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1625,19 +1625,19 @@
         <v>11987</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6565</v>
+        <v>6919</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20212</v>
+        <v>21206</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03371703570497978</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01846507807666234</v>
+        <v>0.01946264973713362</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05685334479351778</v>
+        <v>0.05965055000205589</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -1646,19 +1646,19 @@
         <v>77389</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62578</v>
+        <v>62942</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>97708</v>
+        <v>96963</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07285884477365984</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05891464484896736</v>
+        <v>0.05925769237076348</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09198840494792351</v>
+        <v>0.09128653342557001</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>17081</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10770</v>
+        <v>9516</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26712</v>
+        <v>26868</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02417129255888786</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01524007454540699</v>
+        <v>0.01346538907445303</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03780016311400818</v>
+        <v>0.03802083781804229</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1696,19 +1696,19 @@
         <v>2995</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8669</v>
+        <v>8034</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.008424180571235737</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002753910114579611</v>
+        <v>0.002737088110307339</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02438335876221109</v>
+        <v>0.02259749241343988</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -1717,19 +1717,19 @@
         <v>20076</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12885</v>
+        <v>12361</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30458</v>
+        <v>30928</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01890075990329717</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01213102622115168</v>
+        <v>0.01163769346370234</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02867546438357456</v>
+        <v>0.02911748440542608</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>222466</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>206403</v>
+        <v>204523</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>239442</v>
+        <v>236640</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7332780853761075</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6803313564261152</v>
+        <v>0.6741340728927233</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7892312969862856</v>
+        <v>0.7799964560329041</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>132</v>
@@ -1842,19 +1842,19 @@
         <v>133697</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>123342</v>
+        <v>123782</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>142047</v>
+        <v>142034</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8367387527597987</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7719354317172764</v>
+        <v>0.7746894304674056</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8889973377983162</v>
+        <v>0.8889156831221871</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>348</v>
@@ -1863,19 +1863,19 @@
         <v>356163</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>336779</v>
+        <v>335085</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>374634</v>
+        <v>374403</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.768969617188821</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7271199115288683</v>
+        <v>0.7234617768134954</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8088504506944658</v>
+        <v>0.8083504934585349</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>49115</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36590</v>
+        <v>37313</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>64388</v>
+        <v>63996</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1618878807186182</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1206056616545784</v>
+        <v>0.1229898468809278</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2122309484068865</v>
+        <v>0.2109401002835888</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -1913,19 +1913,19 @@
         <v>15501</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9058</v>
+        <v>8682</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23280</v>
+        <v>23846</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09701303879233576</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05669139197836773</v>
+        <v>0.05433622738195441</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1457005840539655</v>
+        <v>0.1492422021708315</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>59</v>
@@ -1934,19 +1934,19 @@
         <v>64616</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>49879</v>
+        <v>50128</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>81354</v>
+        <v>81557</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1395075641885737</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1076916025501199</v>
+        <v>0.1082280468905505</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1756467080006872</v>
+        <v>0.1760852731325965</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>19772</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11921</v>
+        <v>10918</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29815</v>
+        <v>29798</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06517263773519733</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03929454974237664</v>
+        <v>0.03598671354232674</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09827504813781915</v>
+        <v>0.09821763401359081</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -1984,19 +1984,19 @@
         <v>7404</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3322</v>
+        <v>3075</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14543</v>
+        <v>13898</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04633958899476796</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02079166915568939</v>
+        <v>0.01924413656261752</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09101941307728256</v>
+        <v>0.08698226378208414</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -2005,19 +2005,19 @@
         <v>27177</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>18487</v>
+        <v>17323</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>42162</v>
+        <v>39804</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05867567250920869</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03991450379457157</v>
+        <v>0.03740137520265192</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09102869684028662</v>
+        <v>0.08593885416397773</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>12033</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6424</v>
+        <v>6332</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20828</v>
+        <v>20157</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0396613961700769</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02117416372298283</v>
+        <v>0.02087006761359202</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06865245127533783</v>
+        <v>0.06643862676334937</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2058,16 +2058,16 @@
         <v>1011</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8711</v>
+        <v>8503</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01990861945309761</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006326755225919742</v>
+        <v>0.006328839874586093</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05451498100548564</v>
+        <v>0.05321339908690503</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -2076,19 +2076,19 @@
         <v>15214</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8635</v>
+        <v>8529</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24174</v>
+        <v>24423</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03284714611339666</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01864388498781922</v>
+        <v>0.01841498615128912</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05219282058815669</v>
+        <v>0.05273064428798777</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>1292625</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1251015</v>
+        <v>1248527</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1331961</v>
+        <v>1329406</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6818222620326448</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6598745489052575</v>
+        <v>0.6585623284759375</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7025711828040752</v>
+        <v>0.701223272182287</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>826</v>
@@ -2201,19 +2201,19 @@
         <v>863220</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>839175</v>
+        <v>837353</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>885219</v>
+        <v>886263</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8464600818391087</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8228818852116372</v>
+        <v>0.8210950017726864</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8680318902922394</v>
+        <v>0.8690554439764872</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2065</v>
@@ -2222,19 +2222,19 @@
         <v>2155845</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2105206</v>
+        <v>2104995</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2205111</v>
+        <v>2205437</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7394075013311114</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7220396640664686</v>
+        <v>0.7219672727596705</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7563048040757835</v>
+        <v>0.756416619901162</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>318071</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>288088</v>
+        <v>288162</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>355570</v>
+        <v>354571</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.167773381640091</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1519582926354385</v>
+        <v>0.1519972864687145</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1875528281349502</v>
+        <v>0.187026103085902</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>94</v>
@@ -2272,19 +2272,19 @@
         <v>98245</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>80711</v>
+        <v>79425</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>119153</v>
+        <v>120215</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0963377268199344</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07914394060659333</v>
+        <v>0.07788318150313119</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1168399991670306</v>
+        <v>0.117881370657285</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>394</v>
@@ -2293,19 +2293,19 @@
         <v>416316</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>376184</v>
+        <v>377335</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>458911</v>
+        <v>454968</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1427873894658926</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.129022793185861</v>
+        <v>0.1294177630507521</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1573965894280537</v>
+        <v>0.1560442103566901</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>207352</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>182637</v>
+        <v>178990</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>234939</v>
+        <v>235717</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1093721801562621</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09633563156003168</v>
+        <v>0.09441186289598812</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1239234198809842</v>
+        <v>0.124334191589144</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>42</v>
@@ -2343,19 +2343,19 @@
         <v>44321</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>31395</v>
+        <v>32328</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>57678</v>
+        <v>59077</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04346004616499936</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03078501664379401</v>
+        <v>0.03170047759704548</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05655828237824471</v>
+        <v>0.05792983018402758</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>246</v>
@@ -2364,19 +2364,19 @@
         <v>251672</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>223207</v>
+        <v>223678</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>280041</v>
+        <v>284022</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08631814546957073</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07655510887694472</v>
+        <v>0.07671655658381417</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09604794318348187</v>
+        <v>0.09741326657990966</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>77790</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>62942</v>
+        <v>62482</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>97073</v>
+        <v>98174</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04103217617100209</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03320027733900353</v>
+        <v>0.03295749049340514</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05120338901577203</v>
+        <v>0.0517841996054265</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>13</v>
@@ -2414,19 +2414,19 @@
         <v>14014</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>7484</v>
+        <v>7573</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>22667</v>
+        <v>23594</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01374214517595752</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.007338289454238221</v>
+        <v>0.007426267920454315</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02222667450667823</v>
+        <v>0.02313602545714721</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>85</v>
@@ -2435,19 +2435,19 @@
         <v>91805</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>73269</v>
+        <v>72875</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>113673</v>
+        <v>113256</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03148696373342513</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0251298239199661</v>
+        <v>0.02499454899249236</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03898719432169811</v>
+        <v>0.03884417567982389</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>132855</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>115882</v>
+        <v>115095</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>151968</v>
+        <v>150023</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4775260453377692</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4165211269443476</v>
+        <v>0.4136916236318312</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5462254958723122</v>
+        <v>0.5392327041199559</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>156</v>
@@ -2800,19 +2800,19 @@
         <v>170926</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>158049</v>
+        <v>155494</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>184634</v>
+        <v>181861</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7653380300721009</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7076796086490617</v>
+        <v>0.6962418322798397</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8267166492550466</v>
+        <v>0.8143009340729088</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>283</v>
@@ -2821,19 +2821,19 @@
         <v>303781</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>280729</v>
+        <v>280611</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>324683</v>
+        <v>324672</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6056854525479676</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.559724799628682</v>
+        <v>0.5594878774745332</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6473609047808714</v>
+        <v>0.6473393490155952</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>67852</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52914</v>
+        <v>51985</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>83060</v>
+        <v>82633</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2438825980663444</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1901907446667335</v>
+        <v>0.1868503132532325</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2985472559781022</v>
+        <v>0.297010699658642</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -2871,19 +2871,19 @@
         <v>25943</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16764</v>
+        <v>16931</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37601</v>
+        <v>37604</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1161603016306031</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07506229097851061</v>
+        <v>0.07581101892346997</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1683639413538708</v>
+        <v>0.168375096980436</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>86</v>
@@ -2892,19 +2892,19 @@
         <v>93794</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>76472</v>
+        <v>77628</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>112646</v>
+        <v>114239</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.187009310410032</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1524723031407492</v>
+        <v>0.1547766742512928</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2245969525368444</v>
+        <v>0.2277732263996912</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>43878</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32346</v>
+        <v>33041</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56815</v>
+        <v>58868</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1577141142003807</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1162641743378493</v>
+        <v>0.1187592374342612</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2042126925013229</v>
+        <v>0.2115902485930168</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -2942,19 +2942,19 @@
         <v>17355</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10842</v>
+        <v>10604</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27110</v>
+        <v>27211</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07770690767134529</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04854518982130214</v>
+        <v>0.04747914904521568</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1213861034854669</v>
+        <v>0.1218417450322715</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>57</v>
@@ -2963,19 +2963,19 @@
         <v>61233</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>47553</v>
+        <v>48505</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78104</v>
+        <v>78774</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1220878140281697</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09481244469529514</v>
+        <v>0.0967110549427299</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1557263033494339</v>
+        <v>0.1570606670091396</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>33630</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23323</v>
+        <v>24031</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47410</v>
+        <v>47519</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1208772423955057</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08382954185496871</v>
+        <v>0.08637676561579777</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1704091006922038</v>
+        <v>0.1707982274512028</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -3013,19 +3013,19 @@
         <v>9111</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4937</v>
+        <v>4762</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16440</v>
+        <v>16232</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04079476062595076</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02210571993792742</v>
+        <v>0.02132223296095116</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07361298238031005</v>
+        <v>0.07267832003990095</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -3034,19 +3034,19 @@
         <v>42741</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30150</v>
+        <v>29590</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57628</v>
+        <v>57222</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08521742301383066</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06011306313280085</v>
+        <v>0.05899716920395476</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.114900171046526</v>
+        <v>0.1140901647883137</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>201938</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>180288</v>
+        <v>182568</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>219728</v>
+        <v>221263</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5339093732217202</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4766672238730822</v>
+        <v>0.4826964746583244</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5809429678788447</v>
+        <v>0.5850017824434411</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>173</v>
@@ -3159,19 +3159,19 @@
         <v>186224</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>169941</v>
+        <v>169644</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>199498</v>
+        <v>199386</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7292722232792378</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6655056107147445</v>
+        <v>0.6643413058883678</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7812524863156486</v>
+        <v>0.780814536700097</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>369</v>
@@ -3180,19 +3180,19 @@
         <v>388162</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>361938</v>
+        <v>364388</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>415254</v>
+        <v>415579</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.61264741563581</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5712568350260734</v>
+        <v>0.575123818895328</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6554067571541898</v>
+        <v>0.6559194537320527</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>103973</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86716</v>
+        <v>86836</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>123968</v>
+        <v>121017</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.274897039756425</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2292701304128959</v>
+        <v>0.2295884959549611</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3277616202866772</v>
+        <v>0.3199601252210549</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -3230,19 +3230,19 @@
         <v>44067</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33024</v>
+        <v>32291</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57868</v>
+        <v>58253</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.172569476279211</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1293256831892954</v>
+        <v>0.1264554778559112</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2266180837515017</v>
+        <v>0.2281262546470885</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>140</v>
@@ -3251,19 +3251,19 @@
         <v>148040</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>128606</v>
+        <v>125750</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>172277</v>
+        <v>171736</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2336554627072202</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2029829027290935</v>
+        <v>0.1984747097578533</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2719089208129597</v>
+        <v>0.2710558155859576</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>45334</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>34310</v>
+        <v>32139</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>60599</v>
+        <v>59429</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1198607935947415</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09071412959217763</v>
+        <v>0.08497319684758303</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1602184785901162</v>
+        <v>0.1571246413636437</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -3301,19 +3301,19 @@
         <v>12335</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6136</v>
+        <v>6484</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22786</v>
+        <v>23185</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04830400938589161</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02402758802510514</v>
+        <v>0.0253906869289441</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08923396876226038</v>
+        <v>0.09079652713456438</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>53</v>
@@ -3322,19 +3322,19 @@
         <v>57669</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>43919</v>
+        <v>44335</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>74531</v>
+        <v>75246</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09102091381005624</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.069318075621132</v>
+        <v>0.06997497255936097</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1176344590645623</v>
+        <v>0.1187629903163089</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>26980</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16948</v>
+        <v>17964</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>39844</v>
+        <v>39328</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07133279342711332</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04480858947375169</v>
+        <v>0.0474953995136573</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1053452267094288</v>
+        <v>0.1039812237307149</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -3372,19 +3372,19 @@
         <v>12731</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6304</v>
+        <v>7061</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21898</v>
+        <v>22143</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04985429105565962</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02468906146561424</v>
+        <v>0.02765288915309911</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0857552674870304</v>
+        <v>0.08671330366153604</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>36</v>
@@ -3393,19 +3393,19 @@
         <v>39711</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>26380</v>
+        <v>28986</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>53335</v>
+        <v>54176</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06267620784691347</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04163557638193694</v>
+        <v>0.04574925321950165</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08418022260283814</v>
+        <v>0.08550719412181119</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>276969</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>254252</v>
+        <v>255700</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>297043</v>
+        <v>298609</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6089013513302843</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5589588195677806</v>
+        <v>0.5621433783326937</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6530323291663459</v>
+        <v>0.6564752682926694</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>217</v>
@@ -3518,19 +3518,19 @@
         <v>231782</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>218642</v>
+        <v>218015</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>242957</v>
+        <v>242620</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8317667093039247</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7846127952267103</v>
+        <v>0.7823625925722579</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8718684976314757</v>
+        <v>0.8706594404508776</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>479</v>
@@ -3539,19 +3539,19 @@
         <v>508751</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>481721</v>
+        <v>485481</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>531989</v>
+        <v>536946</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.693566243049862</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6567176598729063</v>
+        <v>0.6618430772328698</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7252461029588148</v>
+        <v>0.7320040086164509</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>106226</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>88415</v>
+        <v>89426</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>124703</v>
+        <v>126275</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2335319311310143</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1943760800161183</v>
+        <v>0.1965985731099931</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2741519366789573</v>
+        <v>0.2776095576003474</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>27</v>
@@ -3589,19 +3589,19 @@
         <v>27657</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>19352</v>
+        <v>19643</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>39136</v>
+        <v>39712</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09924827152138856</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0694448559586972</v>
+        <v>0.07049129333413684</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1404425196010478</v>
+        <v>0.1425104276232429</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>127</v>
@@ -3610,19 +3610,19 @@
         <v>133883</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>115013</v>
+        <v>111962</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>156700</v>
+        <v>156306</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1825185677086816</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1567941088765631</v>
+        <v>0.1526343845578698</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2136249916476471</v>
+        <v>0.2130871781168504</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>49955</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36843</v>
+        <v>37259</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65909</v>
+        <v>64513</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1098237341562811</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08099630988534406</v>
+        <v>0.08191122945353035</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1448971980284681</v>
+        <v>0.1418282451079441</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -3660,19 +3660,19 @@
         <v>14037</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8181</v>
+        <v>8053</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23155</v>
+        <v>22378</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05037193595287192</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02935730977761509</v>
+        <v>0.02889914375160075</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08309378050620861</v>
+        <v>0.0803067327837131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -3681,19 +3681,19 @@
         <v>63992</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>49208</v>
+        <v>48665</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>80652</v>
+        <v>81019</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08723843824851081</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06708407203536049</v>
+        <v>0.06634310804954441</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1099502463896596</v>
+        <v>0.1104516580610838</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>21717</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14657</v>
+        <v>13882</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32593</v>
+        <v>32897</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04774298338242018</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0322219818170356</v>
+        <v>0.03051794451653043</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07165438239903879</v>
+        <v>0.07232258305011237</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -3731,19 +3731,19 @@
         <v>5187</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1948</v>
+        <v>1925</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11388</v>
+        <v>11932</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01861308322181477</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006990172359058292</v>
+        <v>0.006907474099870072</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04086743649934422</v>
+        <v>0.04281910248815837</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -3752,19 +3752,19 @@
         <v>26903</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>18557</v>
+        <v>17504</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39267</v>
+        <v>39752</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03667675099294551</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0252986580646002</v>
+        <v>0.02386260488536902</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05353167488950498</v>
+        <v>0.05419336045133497</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>203775</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>185299</v>
+        <v>186376</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>219172</v>
+        <v>220386</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6875723969816923</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6252299049327918</v>
+        <v>0.628864299777836</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7395243609371362</v>
+        <v>0.7436208123896398</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>131</v>
@@ -3877,19 +3877,19 @@
         <v>145456</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>132527</v>
+        <v>132027</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>156237</v>
+        <v>156332</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7887159902017635</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7186095030662683</v>
+        <v>0.7159017349469066</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8471766590370718</v>
+        <v>0.8476902901275637</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>316</v>
@@ -3898,19 +3898,19 @@
         <v>349231</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>328416</v>
+        <v>328667</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>367948</v>
+        <v>369065</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7263689410804484</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6830753006611442</v>
+        <v>0.6835975317431435</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7652998159455161</v>
+        <v>0.7676227623903688</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>50060</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38846</v>
+        <v>37177</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>65130</v>
+        <v>64147</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1689118424021345</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1310737296001082</v>
+        <v>0.1254417521559447</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2197582007593211</v>
+        <v>0.216441449652224</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -3948,19 +3948,19 @@
         <v>31354</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20947</v>
+        <v>21727</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43133</v>
+        <v>44551</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1700132182426583</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1135800599198351</v>
+        <v>0.1178110033308193</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2338852774059887</v>
+        <v>0.2415726327644371</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>75</v>
@@ -3969,19 +3969,19 @@
         <v>81414</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>64583</v>
+        <v>64305</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>99535</v>
+        <v>98998</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1693343068905496</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1343276887349958</v>
+        <v>0.1337490271339505</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2070230395877482</v>
+        <v>0.2059065626856564</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>27536</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17408</v>
+        <v>18825</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>39609</v>
+        <v>40489</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09291056290398401</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05873688277447664</v>
+        <v>0.06351792811437505</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1336463565629948</v>
+        <v>0.1366170995575318</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -4019,19 +4019,19 @@
         <v>5686</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1891</v>
+        <v>1955</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12308</v>
+        <v>13123</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03083245958192143</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01025378512711205</v>
+        <v>0.01060330417621643</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06673973373980394</v>
+        <v>0.07115939901859877</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>30</v>
@@ -4040,19 +4040,19 @@
         <v>33222</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>22775</v>
+        <v>23110</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>46717</v>
+        <v>47676</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06909871485285504</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04736921458863769</v>
+        <v>0.04806729579115301</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09716803268427475</v>
+        <v>0.09916095005958153</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>14998</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8525</v>
+        <v>8052</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25332</v>
+        <v>25323</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05060519771218925</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02876400444074759</v>
+        <v>0.02716779833471371</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0854759382260597</v>
+        <v>0.08544280172862871</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6850</v>
+        <v>6843</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01043833197365676</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03714364304597604</v>
+        <v>0.03710423235390903</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -4111,19 +4111,19 @@
         <v>16923</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8991</v>
+        <v>9466</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25984</v>
+        <v>27607</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03519803717614703</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01870109013242422</v>
+        <v>0.01968876825049838</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05404540685035137</v>
+        <v>0.05741928933090457</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>815538</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>778530</v>
+        <v>773568</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>855764</v>
+        <v>853343</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5793499551807018</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5530598898235145</v>
+        <v>0.5495348320384712</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6079266144015673</v>
+        <v>0.6062066746765178</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>677</v>
@@ -4236,19 +4236,19 @@
         <v>734388</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>708117</v>
+        <v>708395</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>759906</v>
+        <v>759569</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7797926348997359</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7518976111975293</v>
+        <v>0.7521924673744079</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8068882143818492</v>
+        <v>0.8065305985337405</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1447</v>
@@ -4257,19 +4257,19 @@
         <v>1549925</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1500471</v>
+        <v>1497265</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1601389</v>
+        <v>1597955</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6596970413362169</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6386475872698013</v>
+        <v>0.6372831690570097</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6816018456141051</v>
+        <v>0.6801401629626466</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>328111</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>296387</v>
+        <v>293072</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>362521</v>
+        <v>363508</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2330870016580965</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2105501669087477</v>
+        <v>0.2081956244539065</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2575314442644884</v>
+        <v>0.2582323902833357</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>120</v>
@@ -4307,19 +4307,19 @@
         <v>129020</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>108394</v>
+        <v>109143</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>152275</v>
+        <v>153681</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.136996803140739</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1150952532277071</v>
+        <v>0.1158909173860562</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1616900809151739</v>
+        <v>0.1631828025290308</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>428</v>
@@ -4328,19 +4328,19 @@
         <v>457131</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>417227</v>
+        <v>417879</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>498118</v>
+        <v>499987</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1945694191262884</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1775850135337386</v>
+        <v>0.1778626784174471</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.212014526713928</v>
+        <v>0.2128103115771636</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>166704</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>142948</v>
+        <v>142299</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>193396</v>
+        <v>193795</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1184248197096534</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.101548603329622</v>
+        <v>0.1010876217715418</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1373863810687801</v>
+        <v>0.1376701911814471</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>45</v>
@@ -4378,19 +4378,19 @@
         <v>49412</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>36135</v>
+        <v>36052</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>64546</v>
+        <v>65558</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05246722368039274</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03836894287993648</v>
+        <v>0.03828051486801848</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0685366193224245</v>
+        <v>0.06961170693291369</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>200</v>
@@ -4399,19 +4399,19 @@
         <v>216116</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>187903</v>
+        <v>189846</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>247991</v>
+        <v>247477</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09198583646415841</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07997758885542465</v>
+        <v>0.08080428247698805</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1055526787679873</v>
+        <v>0.1053339923610673</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>97324</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>79988</v>
+        <v>79634</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>122597</v>
+        <v>119801</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06913822345154826</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05682296107027594</v>
+        <v>0.05657113117749596</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08709166295846342</v>
+        <v>0.08510531106463984</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>27</v>
@@ -4449,19 +4449,19 @@
         <v>28953</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>19293</v>
+        <v>19262</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>42102</v>
+        <v>41756</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03074333827913233</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02048560933785518</v>
+        <v>0.02045256993013228</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04470518233102404</v>
+        <v>0.04433773503199173</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>116</v>
@@ -4470,19 +4470,19 @@
         <v>126278</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>103036</v>
+        <v>105010</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>149613</v>
+        <v>150498</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05374770307333628</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04385555214699236</v>
+        <v>0.04469559751854629</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06368021116570889</v>
+        <v>0.06405656411282964</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>143863</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>125133</v>
+        <v>127117</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162593</v>
+        <v>162754</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.493468465200977</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4292227539234382</v>
+        <v>0.4360259287574836</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5577143003332814</v>
+        <v>0.5582648229226086</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>191</v>
@@ -4835,19 +4835,19 @@
         <v>196730</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>182479</v>
+        <v>181249</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>212238</v>
+        <v>211766</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7121868993543153</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6605952959771535</v>
+        <v>0.6561426582625949</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7683281795120956</v>
+        <v>0.7666170522589371</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>324</v>
@@ -4856,19 +4856,19 @@
         <v>340594</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>317188</v>
+        <v>314102</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>366416</v>
+        <v>363025</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5998804904552619</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5586566054236525</v>
+        <v>0.5532217493410737</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.645361594803544</v>
+        <v>0.6393889544192357</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>88205</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72436</v>
+        <v>71809</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>105141</v>
+        <v>105177</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3025539526008646</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2484639514999445</v>
+        <v>0.246312013937789</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3606462629436373</v>
+        <v>0.360768655624556</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -4906,19 +4906,19 @@
         <v>48992</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36470</v>
+        <v>36996</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62329</v>
+        <v>61645</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1773575031664975</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1320253644383254</v>
+        <v>0.1339311055209322</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2256372470686377</v>
+        <v>0.2231617094643427</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>128</v>
@@ -4927,19 +4927,19 @@
         <v>137197</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>117946</v>
+        <v>117246</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>160104</v>
+        <v>159227</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2416427276712975</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2077358943459184</v>
+        <v>0.2065024583210948</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2819879032644497</v>
+        <v>0.2804435758480189</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>42550</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30820</v>
+        <v>31508</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56289</v>
+        <v>56387</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1459510865222407</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1057159923961757</v>
+        <v>0.1080751038201567</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1930763456995419</v>
+        <v>0.1934125180459965</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -4977,19 +4977,19 @@
         <v>20954</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13352</v>
+        <v>13531</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29397</v>
+        <v>31613</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07585519712115599</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04833499384417263</v>
+        <v>0.04898355740346977</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1064204026689516</v>
+        <v>0.1144416260960121</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -4998,19 +4998,19 @@
         <v>63504</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49596</v>
+        <v>49893</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>82525</v>
+        <v>81115</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1118476714075347</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08735196708659351</v>
+        <v>0.08787611980998074</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1453500187172586</v>
+        <v>0.1428659435924643</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>16917</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9817</v>
+        <v>9472</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27155</v>
+        <v>27371</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05802649567591773</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0336721198932688</v>
+        <v>0.03248912723055813</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09314578970306389</v>
+        <v>0.09388504092561331</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -5048,19 +5048,19 @@
         <v>9558</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4652</v>
+        <v>4749</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17020</v>
+        <v>18646</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03460040035803117</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01684177493507631</v>
+        <v>0.01719033828119185</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06161549326815991</v>
+        <v>0.06750044761934247</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -5069,19 +5069,19 @@
         <v>26475</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17846</v>
+        <v>17864</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38340</v>
+        <v>38158</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04662911046590577</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03143200437092587</v>
+        <v>0.03146308829709216</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06752761937977569</v>
+        <v>0.06720770116652505</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>192647</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>172806</v>
+        <v>170509</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>210997</v>
+        <v>211486</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4953823741523173</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4443635622057056</v>
+        <v>0.4384556485667126</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5425697451692095</v>
+        <v>0.5438263882946462</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>201</v>
@@ -5194,19 +5194,19 @@
         <v>206937</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>191339</v>
+        <v>192426</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>220775</v>
+        <v>219881</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7691471533444424</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7111714630662398</v>
+        <v>0.7152129280922809</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8205824020644792</v>
+        <v>0.8172599929287953</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>383</v>
@@ -5215,19 +5215,19 @@
         <v>399583</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>375044</v>
+        <v>375521</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>425010</v>
+        <v>425604</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6073325818364862</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.570035034297228</v>
+        <v>0.5707597947513998</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6459793649969096</v>
+        <v>0.6468818340471166</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>122177</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>102810</v>
+        <v>105197</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>139906</v>
+        <v>141199</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.314172828193313</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2643704033611723</v>
+        <v>0.2705101762660037</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3597612548016305</v>
+        <v>0.3630880047589695</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -5265,19 +5265,19 @@
         <v>38643</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27508</v>
+        <v>28284</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50562</v>
+        <v>50906</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1436303227638447</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1022410225535178</v>
+        <v>0.1051280520191945</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1879317009213783</v>
+        <v>0.1892092685584483</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>154</v>
@@ -5286,19 +5286,19 @@
         <v>160820</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>137944</v>
+        <v>140355</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>182533</v>
+        <v>183336</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2444331452503558</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2096639575287307</v>
+        <v>0.2133274375789523</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2774345029224775</v>
+        <v>0.2786555438181206</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>58691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>46334</v>
+        <v>45680</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>74378</v>
+        <v>74314</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1509213764157566</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1191445636092702</v>
+        <v>0.1174641575977907</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1912594023074936</v>
+        <v>0.1910956289421006</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -5336,19 +5336,19 @@
         <v>18537</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11183</v>
+        <v>12152</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28930</v>
+        <v>28271</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06890025262513748</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04156415262596184</v>
+        <v>0.04516515465769154</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1075293032813666</v>
+        <v>0.105079063581735</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>75</v>
@@ -5357,19 +5357,19 @@
         <v>77228</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>62505</v>
+        <v>61819</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>95280</v>
+        <v>95608</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1173806051377804</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09500162286724297</v>
+        <v>0.09395946592712164</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1448182196970091</v>
+        <v>0.1453155487011995</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>15370</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9663</v>
+        <v>8872</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25501</v>
+        <v>25861</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03952342123861308</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02484676060810588</v>
+        <v>0.02281509406876142</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06557532505347183</v>
+        <v>0.06650075108810298</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -5407,19 +5407,19 @@
         <v>4930</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1956</v>
+        <v>1015</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11636</v>
+        <v>10789</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01832227126657541</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007268401512310289</v>
+        <v>0.003772854708256096</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04324849383618897</v>
+        <v>0.04009901036583839</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -5428,19 +5428,19 @@
         <v>20300</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12838</v>
+        <v>12186</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31197</v>
+        <v>31266</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03085366777537758</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01951249460561124</v>
+        <v>0.01852100382264498</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04741711141053576</v>
+        <v>0.04752117088580055</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>277707</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>256658</v>
+        <v>255413</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>297724</v>
+        <v>299191</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6130705818416442</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5666010861306926</v>
+        <v>0.563853822820209</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6572585486164885</v>
+        <v>0.6604980031725728</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>222</v>
@@ -5553,19 +5553,19 @@
         <v>220802</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>206201</v>
+        <v>206156</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>235098</v>
+        <v>234043</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7597212961067197</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7094828179289586</v>
+        <v>0.7093300879433829</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8089102787837676</v>
+        <v>0.8052815444751183</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>479</v>
@@ -5574,19 +5574,19 @@
         <v>498509</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>470798</v>
+        <v>473001</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>522974</v>
+        <v>522808</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6703878271516664</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6331221543274591</v>
+        <v>0.6360851494473041</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7032874378000931</v>
+        <v>0.7030651664015525</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>105280</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>87985</v>
+        <v>88064</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>124650</v>
+        <v>125079</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2324173770151088</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1942371013915252</v>
+        <v>0.1944119677144545</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2751778576595751</v>
+        <v>0.2761266928615344</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>47</v>
@@ -5624,19 +5624,19 @@
         <v>45902</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>34191</v>
+        <v>34650</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>58290</v>
+        <v>59739</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1579362553896786</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1176409482825036</v>
+        <v>0.1192209288135189</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2005608780581309</v>
+        <v>0.2055472518615642</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>145</v>
@@ -5645,19 +5645,19 @@
         <v>151182</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>131978</v>
+        <v>130594</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>175203</v>
+        <v>174560</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2033070331578403</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1774814908577311</v>
+        <v>0.1756206681546773</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2356108364259709</v>
+        <v>0.2347459478702048</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>52255</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39827</v>
+        <v>39845</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>67267</v>
+        <v>67281</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1153580054237179</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08792318886753452</v>
+        <v>0.08796335253675278</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1485000468243401</v>
+        <v>0.1485311336339064</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -5695,19 +5695,19 @@
         <v>18381</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11449</v>
+        <v>11297</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28640</v>
+        <v>29399</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06324347676763675</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03939271831910668</v>
+        <v>0.03887011964441075</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09854378112068836</v>
+        <v>0.1011545875204205</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>69</v>
@@ -5716,19 +5716,19 @@
         <v>70635</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>55652</v>
+        <v>55778</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89907</v>
+        <v>87412</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09498946348946191</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07483970638339431</v>
+        <v>0.07500890443123572</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1209052017548097</v>
+        <v>0.1175498161112827</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>17736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10944</v>
+        <v>10412</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28081</v>
+        <v>28088</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0391540357195291</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02416000312312394</v>
+        <v>0.02298560917338678</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06199117046973132</v>
+        <v>0.0620066446518506</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -5766,19 +5766,19 @@
         <v>5551</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1876</v>
+        <v>1965</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12586</v>
+        <v>13045</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01909897173596496</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006456145863931804</v>
+        <v>0.006762270930237736</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04330456585293851</v>
+        <v>0.0448860805843908</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -5787,19 +5787,19 @@
         <v>23287</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15222</v>
+        <v>14655</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35699</v>
+        <v>34277</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03131567620103143</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02046998802611211</v>
+        <v>0.01970717961582805</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04800740799475017</v>
+        <v>0.04609522317746508</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>182173</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>164550</v>
+        <v>165725</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>197837</v>
+        <v>198193</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6695431816845419</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6047722912721225</v>
+        <v>0.6090899659166743</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7271113384603674</v>
+        <v>0.7284216679774576</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>146</v>
@@ -5912,19 +5912,19 @@
         <v>156718</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>145625</v>
+        <v>144121</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>167195</v>
+        <v>166204</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.807563140356377</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7504004116579884</v>
+        <v>0.742650912583349</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8615508396687558</v>
+        <v>0.8564437758900428</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>312</v>
@@ -5933,19 +5933,19 @@
         <v>338891</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>319615</v>
+        <v>319738</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>357420</v>
+        <v>359174</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7270024444835329</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6856509366748738</v>
+        <v>0.6859143307323051</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7667509228836312</v>
+        <v>0.7705136459905947</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>47402</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>35277</v>
+        <v>35820</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>62073</v>
+        <v>61789</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1742186314183965</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1296537160443931</v>
+        <v>0.131651265799489</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2281366160956739</v>
+        <v>0.2270933387276143</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -5983,19 +5983,19 @@
         <v>28451</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19553</v>
+        <v>19534</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38920</v>
+        <v>37968</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1466087312722211</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1007583049430393</v>
+        <v>0.1006574967429721</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2005537372765929</v>
+        <v>0.1956477783030991</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>72</v>
@@ -6004,19 +6004,19 @@
         <v>75854</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>61128</v>
+        <v>60550</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>92176</v>
+        <v>93388</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.162724319120238</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1311340291738664</v>
+        <v>0.1298933228306471</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1977382995285365</v>
+        <v>0.2003390812958989</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>33939</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24522</v>
+        <v>23054</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>47157</v>
+        <v>47606</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1247369245939657</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09012500518927037</v>
+        <v>0.08472877081880173</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.173316145877267</v>
+        <v>0.1749657691063013</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -6054,19 +6054,19 @@
         <v>4885</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10823</v>
+        <v>11606</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02516991876108143</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.009294997307413084</v>
+        <v>0.009270170897626771</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05577188970833671</v>
+        <v>0.05980457484743318</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>35</v>
@@ -6075,19 +6075,19 @@
         <v>38824</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>28083</v>
+        <v>28093</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>54299</v>
+        <v>52417</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08328605901398757</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06024554492313849</v>
+        <v>0.06026657455024828</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1164836077105361</v>
+        <v>0.1124461015929254</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>8571</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3080</v>
+        <v>3377</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16774</v>
+        <v>17439</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03150126230309594</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01131947958985902</v>
+        <v>0.01241084676921126</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06164915812774902</v>
+        <v>0.06409429593427517</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -6125,19 +6125,19 @@
         <v>4009</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>946</v>
+        <v>1152</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9452</v>
+        <v>9805</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02065820961032053</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004872510102755314</v>
+        <v>0.005937049780931738</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04870497435702888</v>
+        <v>0.05052240748545521</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -6146,19 +6146,19 @@
         <v>12580</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6270</v>
+        <v>6489</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22007</v>
+        <v>22248</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02698717738224146</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01345112982122315</v>
+        <v>0.01391999320352267</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0472103753833012</v>
+        <v>0.04772643935871176</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>796390</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>758450</v>
+        <v>758065</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>830648</v>
+        <v>834134</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5666310873811911</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5396368059727645</v>
+        <v>0.539362272488051</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5910051632636497</v>
+        <v>0.593485324169674</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>760</v>
@@ -6271,19 +6271,19 @@
         <v>781187</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>752350</v>
+        <v>753146</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>806771</v>
+        <v>805726</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.758449152424634</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7304517677424794</v>
+        <v>0.7312250960584611</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7832891482783819</v>
+        <v>0.7822738678128116</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1498</v>
@@ -6292,19 +6292,19 @@
         <v>1577577</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1531139</v>
+        <v>1528818</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1621880</v>
+        <v>1624748</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6477526744817895</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6286853356700073</v>
+        <v>0.6277323238485919</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6659432657146808</v>
+        <v>0.667121126565303</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>363064</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>332436</v>
+        <v>330529</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>399770</v>
+        <v>399375</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2583199567643059</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2365279309849429</v>
+        <v>0.2351713929683421</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2844358593194967</v>
+        <v>0.284155315075475</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>161</v>
@@ -6342,19 +6342,19 @@
         <v>161989</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>138492</v>
+        <v>140006</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>186475</v>
+        <v>185724</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.157273704989196</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1344611400440519</v>
+        <v>0.1359311466419801</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1810474400972079</v>
+        <v>0.1803185916650372</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>499</v>
@@ -6363,19 +6363,19 @@
         <v>525053</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>483523</v>
+        <v>486044</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>566415</v>
+        <v>567286</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2155865869291597</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.198534299605906</v>
+        <v>0.1995697029670424</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2325696541341462</v>
+        <v>0.2329273106370146</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>187435</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>163532</v>
+        <v>161793</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>213073</v>
+        <v>215899</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1333595498514132</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1163530459962968</v>
+        <v>0.1151154574839034</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1516012230946395</v>
+        <v>0.1536117382783954</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>62</v>
@@ -6413,19 +6413,19 @@
         <v>62757</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>47934</v>
+        <v>49064</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>79126</v>
+        <v>79716</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06092988832053494</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04653871159743203</v>
+        <v>0.04763555727058832</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07682278196128575</v>
+        <v>0.07739622880557216</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>239</v>
@@ -6434,19 +6434,19 @@
         <v>250191</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>220314</v>
+        <v>220304</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>281812</v>
+        <v>281687</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1027283937336967</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09046095482158509</v>
+        <v>0.09045690045451422</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.115711881118434</v>
+        <v>0.115660690070096</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>58594</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>45230</v>
+        <v>45864</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>75315</v>
+        <v>76455</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04168940600308983</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03218140187875242</v>
+        <v>0.03263253942527466</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05358630382157822</v>
+        <v>0.05439770354854122</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>23</v>
@@ -6484,19 +6484,19 @@
         <v>24047</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>15101</v>
+        <v>15167</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>36187</v>
+        <v>36153</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02334725426563506</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01466170973358546</v>
+        <v>0.01472602187351577</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0351333464930337</v>
+        <v>0.03510076842678707</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>77</v>
@@ -6505,19 +6505,19 @@
         <v>82641</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>66146</v>
+        <v>66195</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>101790</v>
+        <v>101075</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03393234485535413</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02715956626767495</v>
+        <v>0.02717954082178637</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04179514463507952</v>
+        <v>0.04150150439171532</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>36383</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25328</v>
+        <v>25282</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47912</v>
+        <v>48255</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3818693963351272</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2658333941815028</v>
+        <v>0.2653529507613157</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5028756717771344</v>
+        <v>0.5064729024352016</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -6870,19 +6870,19 @@
         <v>45516</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36444</v>
+        <v>36138</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52952</v>
+        <v>53262</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5788282582052235</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4634644849883638</v>
+        <v>0.4595725657015007</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6733938393633895</v>
+        <v>0.6773377290622722</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -6891,19 +6891,19 @@
         <v>81899</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67861</v>
+        <v>66112</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96191</v>
+        <v>96243</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4709251976707769</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3902098078911028</v>
+        <v>0.3801519425664862</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5531104225333718</v>
+        <v>0.5534059447044284</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>39118</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28523</v>
+        <v>28070</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50948</v>
+        <v>50171</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4105757027321572</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2993698766012055</v>
+        <v>0.2946167331202859</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5347395661214447</v>
+        <v>0.5265834214558676</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -6941,19 +6941,19 @@
         <v>25309</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18297</v>
+        <v>18765</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33224</v>
+        <v>34585</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3218552369444697</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2326852628547392</v>
+        <v>0.2386393545886263</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4225091918052424</v>
+        <v>0.4398197850197498</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -6962,19 +6962,19 @@
         <v>64427</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>50815</v>
+        <v>50825</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>78788</v>
+        <v>79336</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3704603603678937</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2921937404265468</v>
+        <v>0.292248141474548</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4530392739100701</v>
+        <v>0.4561917775877655</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>17469</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9654</v>
+        <v>10170</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29913</v>
+        <v>32233</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1833518766805627</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1013247647034815</v>
+        <v>0.1067427530326922</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3139607754188762</v>
+        <v>0.3383153812132106</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -7012,19 +7012,19 @@
         <v>2235</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6096</v>
+        <v>5910</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02841811779801206</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00837281232626085</v>
+        <v>0.008574362623349752</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07752720377048543</v>
+        <v>0.07515484556928256</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -7033,19 +7033,19 @@
         <v>19704</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11647</v>
+        <v>11751</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34682</v>
+        <v>34395</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1132979074393607</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06697006542861349</v>
+        <v>0.06757060271075913</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1994225142142604</v>
+        <v>0.1977766317214914</v>
       </c>
     </row>
     <row r="7">
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8319</v>
+        <v>7168</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0242030242521528</v>
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08731667398509328</v>
+        <v>0.07523486164413062</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -7083,19 +7083,19 @@
         <v>5575</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2105</v>
+        <v>2041</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11538</v>
+        <v>11922</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07089838705229481</v>
+        <v>0.07089838705229483</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02677205453926939</v>
+        <v>0.02595017058032624</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1467274934427512</v>
+        <v>0.1516152878822202</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -7104,19 +7104,19 @@
         <v>7881</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3836</v>
+        <v>3551</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15440</v>
+        <v>15560</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04531653452196871</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0220586368695075</v>
+        <v>0.02041916132176836</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08878007969012407</v>
+        <v>0.08947120653256325</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>105496</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>87597</v>
+        <v>88380</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>121429</v>
+        <v>123815</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4556683889173406</v>
+        <v>0.4556683889173405</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3783591940841898</v>
+        <v>0.3817415935074232</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5244866572815914</v>
+        <v>0.5347949125037039</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>120</v>
@@ -7229,19 +7229,19 @@
         <v>95585</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>84799</v>
+        <v>83594</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>107507</v>
+        <v>107798</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5886773878339826</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5222469680863683</v>
+        <v>0.5148282685917194</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6621003469603275</v>
+        <v>0.6638911863902791</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>204</v>
@@ -7250,19 +7250,19 @@
         <v>201081</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>179459</v>
+        <v>178051</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>223709</v>
+        <v>220875</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.51049818694181</v>
+        <v>0.5104981869418098</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4556038893374078</v>
+        <v>0.4520297619281234</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.56794394949875</v>
+        <v>0.5607508057844109</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>85966</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70771</v>
+        <v>68893</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103539</v>
+        <v>102900</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3713111265551284</v>
+        <v>0.3713111265551283</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3056823966649445</v>
+        <v>0.297570471774158</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4472143153444453</v>
+        <v>0.4444547251450907</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -7300,19 +7300,19 @@
         <v>49907</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39570</v>
+        <v>39809</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60737</v>
+        <v>61368</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.307363054254314</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2436995759945272</v>
+        <v>0.2451672857875186</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3740601306239842</v>
+        <v>0.3779443998614253</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>134</v>
@@ -7321,19 +7321,19 @@
         <v>135873</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117171</v>
+        <v>118079</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>160638</v>
+        <v>155947</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3449500538693229</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.297470678849796</v>
+        <v>0.2997750120464305</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4078234929661735</v>
+        <v>0.3959138568612851</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>33868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22993</v>
+        <v>21793</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>52042</v>
+        <v>49813</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1462848732476309</v>
+        <v>0.1462848732476308</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09931221566958773</v>
+        <v>0.09413245717420647</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2247852143987657</v>
+        <v>0.2151559284336507</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -7371,19 +7371,19 @@
         <v>9064</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4882</v>
+        <v>4792</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16052</v>
+        <v>14661</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05582265007939129</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03006747481065865</v>
+        <v>0.02951391626289716</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09886164423144062</v>
+        <v>0.09029098111192313</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>36</v>
@@ -7392,19 +7392,19 @@
         <v>42932</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>30446</v>
+        <v>30398</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>60194</v>
+        <v>58350</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1089939721389957</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07729577246846109</v>
+        <v>0.0771725382530085</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1528182576285126</v>
+        <v>0.148136958410605</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>6190</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2269</v>
+        <v>1930</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14271</v>
+        <v>13106</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.02673561127990032</v>
+        <v>0.02673561127990031</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009799397945392214</v>
+        <v>0.008334250426270791</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06164152016117179</v>
+        <v>0.05661077073105474</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -7442,19 +7442,19 @@
         <v>7816</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3919</v>
+        <v>3539</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15403</v>
+        <v>14742</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04813690783231216</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02413572469692113</v>
+        <v>0.02179574996537504</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09485881792731306</v>
+        <v>0.09078810891807962</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -7463,19 +7463,19 @@
         <v>14006</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7702</v>
+        <v>7791</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22829</v>
+        <v>23428</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03555778704987145</v>
+        <v>0.03555778704987144</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01955326770286845</v>
+        <v>0.01978035907781645</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05795789789318409</v>
+        <v>0.05947792606887099</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>201444</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>180916</v>
+        <v>183169</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>220615</v>
+        <v>219540</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6253659263995615</v>
+        <v>0.6253659263995616</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5616383210039375</v>
+        <v>0.568631994313505</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6848811988884165</v>
+        <v>0.6815417099699057</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>263</v>
@@ -7588,19 +7588,19 @@
         <v>192071</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>181334</v>
+        <v>181010</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>204519</v>
+        <v>202689</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7797189632976212</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7361347785904766</v>
+        <v>0.734817883791679</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8302530631698565</v>
+        <v>0.8228241132240297</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>438</v>
@@ -7609,19 +7609,19 @@
         <v>393515</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>369798</v>
+        <v>370460</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>415501</v>
+        <v>415241</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6922528054770517</v>
+        <v>0.6922528054770518</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6505312944506201</v>
+        <v>0.6516961617730924</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7309307826548288</v>
+        <v>0.7304728231295697</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>85080</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>68567</v>
+        <v>68675</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>103252</v>
+        <v>103242</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2641228296915725</v>
+        <v>0.2641228296915726</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.212859878174415</v>
+        <v>0.2131964299110678</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3205355884097177</v>
+        <v>0.3205060837340473</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>50</v>
@@ -7659,19 +7659,19 @@
         <v>34215</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>25070</v>
+        <v>26135</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>43650</v>
+        <v>43911</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1388958474871523</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1017727025405209</v>
+        <v>0.1060981024440701</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.17719859351852</v>
+        <v>0.1782601484190172</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>131</v>
@@ -7680,19 +7680,19 @@
         <v>119294</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>100896</v>
+        <v>101360</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>140651</v>
+        <v>139566</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2098573472347685</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1774921594700303</v>
+        <v>0.1783076817536747</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2474271553194932</v>
+        <v>0.2455175326948564</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>23116</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15340</v>
+        <v>14388</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34319</v>
+        <v>33131</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07176144049325341</v>
+        <v>0.07176144049325343</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0476225706813482</v>
+        <v>0.04466631129648149</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1065414632971961</v>
+        <v>0.1028537571015816</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -7730,19 +7730,19 @@
         <v>12437</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7146</v>
+        <v>7326</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19727</v>
+        <v>19609</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05048831490864492</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02900995847066514</v>
+        <v>0.02973844472291684</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08008467731527438</v>
+        <v>0.07960351441769437</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -7751,19 +7751,19 @@
         <v>35553</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25755</v>
+        <v>24853</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47253</v>
+        <v>48406</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06254300846772934</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0453062486626203</v>
+        <v>0.04372000804093491</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08312456039435223</v>
+        <v>0.08515357773342133</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>12482</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6152</v>
+        <v>6340</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24941</v>
+        <v>25380</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03874980341561253</v>
+        <v>0.03874980341561254</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01909890298566886</v>
+        <v>0.019681356018568</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07742807435090698</v>
+        <v>0.07878885861325731</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -7801,19 +7801,19 @@
         <v>7611</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3233</v>
+        <v>3464</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15812</v>
+        <v>15338</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03089687430658148</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01312505327398846</v>
+        <v>0.01406367761001696</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0641913346182037</v>
+        <v>0.06226543188863991</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>18</v>
@@ -7822,19 +7822,19 @@
         <v>20093</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11776</v>
+        <v>12081</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35586</v>
+        <v>34730</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03534683882045032</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02071612966056879</v>
+        <v>0.02125204656801044</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06260144866986693</v>
+        <v>0.06109477635318943</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>227777</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>208018</v>
+        <v>207573</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>245321</v>
+        <v>244970</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7176631373458322</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6554065732934936</v>
+        <v>0.6540053507860045</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7729389876777261</v>
+        <v>0.7718333466261039</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>245</v>
@@ -7947,19 +7947,19 @@
         <v>172204</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>161544</v>
+        <v>161795</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>182595</v>
+        <v>182309</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7973860715827745</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7480229737557621</v>
+        <v>0.7491844748428418</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8454989600361079</v>
+        <v>0.8441764954502113</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>440</v>
@@ -7968,19 +7968,19 @@
         <v>399982</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>377096</v>
+        <v>376562</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>420277</v>
+        <v>420102</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.7499442142438411</v>
+        <v>0.7499442142438412</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7070347835215557</v>
+        <v>0.7060337030021449</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7879970026966322</v>
+        <v>0.787668905681016</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>56400</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42839</v>
+        <v>42779</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>75257</v>
+        <v>74715</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1777022388005232</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1349750155568922</v>
+        <v>0.1347859778936419</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2371141593500585</v>
+        <v>0.235407934524726</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>42</v>
@@ -8018,19 +8018,19 @@
         <v>30555</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22163</v>
+        <v>22515</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41139</v>
+        <v>40352</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1414850684311288</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.102623936118298</v>
+        <v>0.1042571991790407</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1904950225844103</v>
+        <v>0.1868507901839947</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>91</v>
@@ -8039,19 +8039,19 @@
         <v>86956</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>72093</v>
+        <v>71507</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>108593</v>
+        <v>106287</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1630373337401052</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1351712942299328</v>
+        <v>0.1340709159318016</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2036055624118525</v>
+        <v>0.1992817098597325</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>22578</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13543</v>
+        <v>13378</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>37094</v>
+        <v>36635</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07113632372578858</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0426703216571805</v>
+        <v>0.04215052078155228</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1168738301029273</v>
+        <v>0.1154269200789844</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -8089,19 +8089,19 @@
         <v>4556</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1853</v>
+        <v>2031</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8821</v>
+        <v>9135</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02109528489990994</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008578268381553521</v>
+        <v>0.009404326774438596</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04084608070458118</v>
+        <v>0.0423006082463722</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -8110,19 +8110,19 @@
         <v>27134</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>17107</v>
+        <v>16845</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>40946</v>
+        <v>40018</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.05087391570160051</v>
+        <v>0.05087391570160052</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03207387826182501</v>
+        <v>0.03158310669571393</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07677222439546741</v>
+        <v>0.07503242166573111</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>10632</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4708</v>
+        <v>4355</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21207</v>
+        <v>19881</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03349830012785605</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01483362054732798</v>
+        <v>0.013722473142629</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06681645471322976</v>
+        <v>0.06264113489796788</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -8160,19 +8160,19 @@
         <v>8646</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4512</v>
+        <v>4433</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15038</v>
+        <v>14801</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04003357508618672</v>
+        <v>0.04003357508618673</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02089233543425837</v>
+        <v>0.02052472046044554</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06963211481784033</v>
+        <v>0.06853499700573028</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -8181,19 +8181,19 @@
         <v>19278</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11843</v>
+        <v>11712</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29390</v>
+        <v>29953</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03614453631445323</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02220477412836291</v>
+        <v>0.02195879808441252</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05510510022371755</v>
+        <v>0.05615982052233159</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>571101</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>539281</v>
+        <v>531092</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>607115</v>
+        <v>601154</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5910148178535204</v>
+        <v>0.5910148178535205</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5580854546664094</v>
+        <v>0.5496115450353383</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6282845665693014</v>
+        <v>0.6221160945076364</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>679</v>
@@ -8306,19 +8306,19 @@
         <v>505376</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>485063</v>
+        <v>484191</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>525592</v>
+        <v>526611</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7185767093453054</v>
+        <v>0.7185767093453055</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6896945015107675</v>
+        <v>0.6884550327188347</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7473215230077214</v>
+        <v>0.748770473376707</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1160</v>
@@ -8327,19 +8327,19 @@
         <v>1076476</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1036398</v>
+        <v>1037787</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1115434</v>
+        <v>1120434</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.6447486807794542</v>
+        <v>0.6447486807794544</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6207440039279725</v>
+        <v>0.6215758985546641</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.668082040603339</v>
+        <v>0.6710768858929814</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>266564</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>233834</v>
+        <v>237990</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>295919</v>
+        <v>303877</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2758590740632707</v>
+        <v>0.2758590740632708</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2419881419933241</v>
+        <v>0.2462886267459211</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3062379709595773</v>
+        <v>0.3144728821272109</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>184</v>
@@ -8377,19 +8377,19 @@
         <v>139986</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>121853</v>
+        <v>120924</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>158363</v>
+        <v>158692</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1990415287212164</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1732590051256185</v>
+        <v>0.1719378715176025</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2251716157187576</v>
+        <v>0.2256384087786054</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>418</v>
@@ -8398,19 +8398,19 @@
         <v>406550</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>372289</v>
+        <v>370817</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>444722</v>
+        <v>444141</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.243500636888619</v>
+        <v>0.2435006368886191</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.222980147773177</v>
+        <v>0.2220984032965383</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2663632731374648</v>
+        <v>0.2660154745411724</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>97031</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>76236</v>
+        <v>76529</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>122358</v>
+        <v>123839</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.100413980650914</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07889469063618272</v>
+        <v>0.07919790716411117</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1266243982971859</v>
+        <v>0.128157722132391</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>38</v>
@@ -8448,19 +8448,19 @@
         <v>28291</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19858</v>
+        <v>20365</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>37732</v>
+        <v>38813</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.04022658725242503</v>
+        <v>0.04022658725242504</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.028235161270189</v>
+        <v>0.02895579705023813</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0536491676079222</v>
+        <v>0.05518705663856293</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>115</v>
@@ -8469,19 +8469,19 @@
         <v>125322</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>102024</v>
+        <v>102947</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>152714</v>
+        <v>153258</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07506078849515216</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06110673142428522</v>
+        <v>0.06165948367019049</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09146701263332864</v>
+        <v>0.09179273872842572</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>31610</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>20034</v>
+        <v>20328</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>46913</v>
+        <v>50701</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03271212743229475</v>
+        <v>0.03271212743229476</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02073210811992306</v>
+        <v>0.02103697984919382</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04854885529072397</v>
+        <v>0.05246924379798531</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>34</v>
@@ -8519,19 +8519,19 @@
         <v>29648</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>20881</v>
+        <v>19996</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>40799</v>
+        <v>42094</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.04215517468105318</v>
+        <v>0.04215517468105319</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0296902394223449</v>
+        <v>0.02843148542265727</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0580110107189091</v>
+        <v>0.05985159047073155</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>59</v>
@@ -8540,19 +8540,19 @@
         <v>61258</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>47400</v>
+        <v>46572</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>81855</v>
+        <v>83576</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03668989383677442</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02838976439334426</v>
+        <v>0.02789413938023857</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04902643301004236</v>
+        <v>0.05005753633568415</v>
       </c>
     </row>
     <row r="28">
